--- a/April'21/28.04.2021/Bank Statement.xlsx
+++ b/April'21/28.04.2021/Bank Statement.xlsx
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="193">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>Date:28.04.2021</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2289,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3235,6 +3238,30 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3284,30 +3311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,6 +3497,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4031,70 +4037,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="334" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="335" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="327"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="327"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="344" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
-      <c r="O3" s="337"/>
-      <c r="P3" s="337"/>
-      <c r="Q3" s="337"/>
-      <c r="R3" s="338"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="345"/>
+      <c r="R3" s="346"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -4103,55 +4109,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="330" t="s">
+      <c r="B4" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="332" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="332" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="332" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="332" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="332" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="332" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="339" t="s">
+      <c r="K4" s="347" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="341" t="s">
+      <c r="L4" s="324" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="343" t="s">
+      <c r="M4" s="326" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="345" t="s">
+      <c r="N4" s="328" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="347" t="s">
+      <c r="O4" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="332" t="s">
+      <c r="P4" s="340" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="334" t="s">
+      <c r="Q4" s="342" t="s">
         <v>129</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -4164,23 +4170,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="329"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="340"/>
-      <c r="L5" s="342"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="346"/>
-      <c r="O5" s="348"/>
-      <c r="P5" s="333"/>
-      <c r="Q5" s="335"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="348"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="327"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="341"/>
+      <c r="Q5" s="343"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -7210,14 +7216,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7230,6 +7228,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9325,10 +9331,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9348,7 +9354,7 @@
     <col min="13" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="353" t="s">
         <v>6</v>
       </c>
@@ -9360,7 +9366,7 @@
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
     </row>
-    <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="356" t="s">
         <v>191</v>
       </c>
@@ -9369,7 +9375,7 @@
       <c r="D2" s="357"/>
       <c r="E2" s="358"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -9385,7 +9391,7 @@
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="84"/>
       <c r="B4" s="19"/>
       <c r="C4" s="37"/>
@@ -9398,7 +9404,7 @@
       <c r="K4" s="360"/>
       <c r="L4" s="361"/>
     </row>
-    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>8</v>
       </c>
@@ -9423,7 +9429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>38</v>
       </c>
@@ -9447,8 +9453,11 @@
       <c r="L6" s="185">
         <v>2050</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="M6" s="20">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A7" s="86"/>
       <c r="B7" s="30"/>
       <c r="C7" s="37"/>
@@ -9469,7 +9478,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
         <v>39</v>
       </c>
@@ -9484,17 +9493,20 @@
         <v>203768</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="J8" s="146" t="s">
+      <c r="J8" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="185" t="s">
+      <c r="K8" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="185">
+      <c r="L8" s="411">
         <v>1150</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="M8" s="20">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
         <v>9</v>
       </c>
@@ -9515,11 +9527,14 @@
       <c r="K9" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="185">
+      <c r="L9" s="411">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="M9" s="20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="31"/>
       <c r="C10" s="37"/>
@@ -9532,11 +9547,14 @@
       <c r="K10" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="185">
+      <c r="L10" s="411">
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="20">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="30"/>
       <c r="C11" s="37"/>
@@ -9559,11 +9577,14 @@
       <c r="K11" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="185">
+      <c r="L11" s="411">
         <v>410</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="20">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>37</v>
       </c>
@@ -9587,7 +9608,7 @@
         <v>36095</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="38"/>
       <c r="C13" s="37"/>
@@ -9600,11 +9621,14 @@
       <c r="K13" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="185">
+      <c r="L13" s="411">
         <v>440</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="25" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="M13" s="20">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="25" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A14" s="86"/>
       <c r="B14" s="30"/>
       <c r="C14" s="37"/>
@@ -9621,7 +9645,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="86" t="s">
         <v>41</v>
       </c>
@@ -9647,8 +9671,11 @@
       <c r="L15" s="185">
         <v>945</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="20">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="92"/>
       <c r="B16" s="93"/>
       <c r="C16" s="94"/>
@@ -9665,7 +9692,7 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="362"/>
       <c r="B17" s="363"/>
       <c r="C17" s="363"/>
@@ -9676,7 +9703,7 @@
       <c r="K17" s="189"/>
       <c r="L17" s="189"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="27"/>
       <c r="D18" s="13"/>
@@ -9690,8 +9717,11 @@
       <c r="L18" s="83">
         <v>1007</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="20">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="27"/>
       <c r="D19" s="13"/>
@@ -9700,7 +9730,7 @@
       <c r="K19" s="83"/>
       <c r="L19" s="83"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="27"/>
       <c r="D20" s="13"/>
@@ -9715,7 +9745,7 @@
         <v>5231</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="27"/>
       <c r="D21" s="13"/>
@@ -9730,7 +9760,7 @@
         <v>5638</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="27"/>
       <c r="F22" s="26"/>
@@ -9744,7 +9774,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="27"/>
       <c r="D23" s="5"/>
@@ -9759,29 +9789,29 @@
         <v>77307</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="27"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="145"/>
       <c r="B28" s="8"/>
       <c r="C28" s="27"/>
@@ -9791,26 +9821,26 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="145"/>
       <c r="B29" s="8"/>
       <c r="C29" s="27"/>
       <c r="D29" s="7"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="27"/>
       <c r="D30" s="12"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="27"/>
       <c r="D31" s="7"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="27"/>
       <c r="D32" s="8"/>
@@ -9844,8 +9874,8 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:Q3"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10251,9 +10281,15 @@
       <c r="O12" s="169"/>
       <c r="P12" s="169"/>
       <c r="Q12" s="174"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
+      <c r="T12" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="U12" s="187">
+        <v>478</v>
+      </c>
+      <c r="V12" s="187">
+        <v>91298</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153">
@@ -10422,11 +10458,11 @@
       </c>
       <c r="U17" s="253">
         <f>SUM(U7:U16)</f>
-        <v>1072</v>
+        <v>1550</v>
       </c>
       <c r="V17" s="253">
         <f>SUM(V7:V16)</f>
-        <v>204752</v>
+        <v>296050</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
